--- a/data-theory/lab02/lab02.xlsx
+++ b/data-theory/lab02/lab02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grigorijtomczuk/Desktop/suai/data-theory/lab02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354F00E7-8BFA-3148-A1AA-7FB1FF9F3243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F104765A-4337-9E46-8BE3-DA564F25242D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="1060" windowWidth="21300" windowHeight="20960" xr2:uid="{88569994-2899-7345-8396-A8AF05D149FA}"/>
+    <workbookView xWindow="16300" yWindow="5500" windowWidth="28160" windowHeight="20960" xr2:uid="{88569994-2899-7345-8396-A8AF05D149FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>Символ</t>
   </si>
@@ -127,9 +127,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,6 +169,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -346,7 +366,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -354,55 +376,13 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -431,104 +411,92 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,580 +832,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EB3F4B-8F5C-C14C-AAD9-B73CD98BC41B}">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.5" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="9.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="27" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="14">
         <v>8</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="15">
         <v>0.1739130435</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="35">
         <v>0.1739130435</v>
       </c>
-      <c r="H2" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33" t="s">
+      <c r="H2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="28">
-        <v>0.1739130435</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="14">
         <v>6</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="15">
         <v>0.13043478259999999</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="35">
         <v>0.13043478259999999</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="37" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>6</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.13043478259999999</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="35">
+        <v>0.13043478259999999</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15">
+        <v>8.6956521699999997E-2</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="35">
+        <v>8.6956521699999997E-2</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15">
+        <v>8.6956521699999997E-2</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="35">
+        <v>8.6956521699999997E-2</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15">
+        <v>8.6956521699999997E-2</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="35">
+        <v>8.6956521699999997E-2</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="29">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15">
+        <v>8.6956521699999997E-2</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="35">
+        <v>8.6956521699999997E-2</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="30"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="29">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14">
         <v>2</v>
       </c>
-      <c r="S3" s="28">
-        <v>0.13043478259999999</v>
-      </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="22"/>
-      <c r="Y3" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="20">
-        <v>6</v>
-      </c>
-      <c r="C4" s="21">
-        <v>0.13043478259999999</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="28">
-        <v>0.13043478259999999</v>
-      </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="S4" s="28">
-        <v>0.13043478259999999</v>
-      </c>
-      <c r="T4" s="41"/>
-      <c r="U4" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y4" s="37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20">
-        <v>4</v>
-      </c>
-      <c r="C5" s="21">
-        <v>8.6956521699999997E-2</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="28">
-        <v>8.6956521699999997E-2</v>
-      </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" s="28">
-        <v>8.6956521699999997E-2</v>
-      </c>
-      <c r="T5" s="41"/>
-      <c r="U5" s="22"/>
-      <c r="Y5" s="37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20">
-        <v>4</v>
-      </c>
-      <c r="C6" s="21">
-        <v>8.6956521699999997E-2</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="28">
-        <v>8.6956521699999997E-2</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="37">
-        <v>100</v>
-      </c>
-      <c r="R6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="S6" s="28">
-        <v>8.6956521699999997E-2</v>
-      </c>
-      <c r="T6" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="U6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y6" s="37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20">
-        <v>4</v>
-      </c>
-      <c r="C7" s="21">
-        <v>8.6956521699999997E-2</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="28">
-        <v>8.6956521699999997E-2</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="37">
-        <v>1010</v>
-      </c>
-      <c r="R7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="28">
-        <v>8.6956521699999997E-2</v>
-      </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="22"/>
-      <c r="Y7" s="37">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="20">
-        <v>4</v>
-      </c>
-      <c r="C8" s="21">
-        <v>8.6956521699999997E-2</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="28">
-        <v>8.6956521699999997E-2</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="37">
-        <v>1011</v>
-      </c>
-      <c r="R8" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="S8" s="28">
-        <v>8.6956521699999997E-2</v>
-      </c>
-      <c r="T8" s="41"/>
-      <c r="U8" s="22"/>
-      <c r="Y8" s="37">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="C9" s="15">
+        <v>4.3478260900000003E-2</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="20">
+      <c r="G9" s="35">
+        <v>4.3478260900000003E-2</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="30"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="29">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14">
         <v>2</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C10" s="15">
         <v>4.3478260900000003E-2</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="28">
+      <c r="F10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="35">
         <v>4.3478260900000003E-2</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="37">
-        <v>1100</v>
-      </c>
-      <c r="R9" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="S9" s="28">
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="30"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="29">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14">
+        <v>2</v>
+      </c>
+      <c r="C11" s="15">
         <v>4.3478260900000003E-2</v>
       </c>
-      <c r="T9" s="41"/>
-      <c r="Y9" s="37">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="20">
+      <c r="F11" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="35">
+        <v>4.3478260900000003E-2</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="30"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="29">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14">
         <v>2</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C12" s="15">
         <v>4.3478260900000003E-2</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="28">
+      <c r="F12" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="35">
         <v>4.3478260900000003E-2</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="37">
-        <v>1101</v>
-      </c>
-      <c r="R10" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="S10" s="28">
-        <v>4.3478260900000003E-2</v>
-      </c>
-      <c r="T10" s="41"/>
-      <c r="Y10" s="37">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="20">
-        <v>2</v>
-      </c>
-      <c r="C11" s="21">
-        <v>4.3478260900000003E-2</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="28">
-        <v>4.3478260900000003E-2</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="37">
-        <v>1110</v>
-      </c>
-      <c r="R11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" s="28">
-        <v>4.3478260900000003E-2</v>
-      </c>
-      <c r="T11" s="41"/>
-      <c r="Y11" s="37">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="20">
-        <v>2</v>
-      </c>
-      <c r="C12" s="21">
-        <v>4.3478260900000003E-2</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="28">
-        <v>4.3478260900000003E-2</v>
-      </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="37">
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="29">
         <v>11110</v>
       </c>
-      <c r="R12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" s="28">
-        <v>4.3478260900000003E-2</v>
-      </c>
-      <c r="T12" s="41"/>
-      <c r="Y12" s="37">
-        <v>11110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+    </row>
+    <row r="13" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="14">
         <v>1</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>2.1739130400000001E-2</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="35">
         <v>2.1739130400000001E-2</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="37">
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="29">
         <v>111110</v>
       </c>
-      <c r="R13" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="28">
+    </row>
+    <row r="14" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15">
         <v>2.1739130400000001E-2</v>
       </c>
-      <c r="T13" s="41"/>
-      <c r="Y13" s="37">
-        <v>111110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="F14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="20">
-        <v>1</v>
-      </c>
-      <c r="C14" s="21">
+      <c r="G14" s="35">
         <v>2.1739130400000001E-2</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="28">
-        <v>2.1739130400000001E-2</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="37">
-        <v>111111</v>
-      </c>
-      <c r="R14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="S14" s="28">
-        <v>2.1739130400000001E-2</v>
-      </c>
-      <c r="T14" s="41"/>
-      <c r="Y14" s="37">
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="29">
         <v>111111</v>
       </c>
     </row>
@@ -1452,14 +1272,14 @@
       <c r="G19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="12"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="21"/>
       <c r="N19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1471,7 +1291,7 @@
       <c r="G20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="16" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="7" t="s">
@@ -1492,7 +1312,7 @@
       <c r="G21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="7" t="s">
         <v>21</v>
       </c>
@@ -1511,10 +1331,10 @@
       <c r="G22" s="5">
         <v>0.15</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="13" t="s">
+      <c r="H22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="16" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="7" t="s">
@@ -1534,8 +1354,8 @@
       <c r="G23" s="5">
         <v>0.1</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="14"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="7" t="s">
         <v>21</v>
       </c>
@@ -1553,8 +1373,8 @@
       <c r="G24" s="5">
         <v>0.1</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="13" t="s">
+      <c r="H24" s="17"/>
+      <c r="I24" s="16" t="s">
         <v>21</v>
       </c>
       <c r="J24" s="7" t="s">
@@ -1574,9 +1394,9 @@
       <c r="G25" s="5">
         <v>0.05</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="13" t="s">
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="16" t="s">
         <v>21</v>
       </c>
       <c r="K25" s="7" t="s">
@@ -1595,10 +1415,10 @@
       <c r="G26" s="5">
         <v>0.05</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="13" t="s">
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
@@ -1616,11 +1436,11 @@
       <c r="G27" s="5">
         <v>0.03</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="13" t="s">
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M27" s="7" t="s">
@@ -1637,11 +1457,11 @@
       <c r="G28" s="5">
         <v>0.02</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
       <c r="M28" s="7" t="s">
         <v>21</v>
       </c>
@@ -1650,34 +1470,29 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="T6:T14"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H14"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J9:J10"/>
+  <mergeCells count="20">
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="H1:M1"/>
     <mergeCell ref="H22:H28"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="I24:I28"/>
     <mergeCell ref="J25:J28"/>
     <mergeCell ref="K26:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H14"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>